--- a/2-Empirical-Evidence/raw_data/Alaska.xlsx
+++ b/2-Empirical-Evidence/raw_data/Alaska.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN020130000000003</t>
@@ -946,10 +962,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>0.4</v>
@@ -1044,10 +1072,20 @@
       <c r="AF5" t="n" s="10">
         <v>4.1</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>5.0</v>
@@ -1142,10 +1180,20 @@
       <c r="AF6" t="n" s="8">
         <v>104.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>1308.0</v>
@@ -1240,10 +1288,20 @@
       <c r="AF7" t="n" s="8">
         <v>2404.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>2373.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>2351.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>2469.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>1313.0</v>
@@ -1338,10 +1396,20 @@
       <c r="AF8" t="n" s="8">
         <v>2508.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>2433.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>2400.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>2522.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>0.5</v>
@@ -1436,10 +1504,20 @@
       <c r="AF9" t="n" s="10">
         <v>4.7</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>17.0</v>
@@ -1534,10 +1612,20 @@
       <c r="AF10" t="n" s="8">
         <v>181.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>3551.0</v>
@@ -1632,10 +1720,20 @@
       <c r="AF11" t="n" s="8">
         <v>3645.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>3368.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>3322.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>3446.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>3568.0</v>
@@ -1730,10 +1828,20 @@
       <c r="AF12" t="n" s="8">
         <v>3826.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>3502.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>3433.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>3553.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>5.3</v>
@@ -1828,10 +1936,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>6460.0</v>
@@ -1926,10 +2044,20 @@
       <c r="AF14" t="n" s="8">
         <v>11638.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>8738.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>5236.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>5169.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>116530.0</v>
@@ -2024,10 +2152,20 @@
       <c r="AF15" t="n" s="8">
         <v>135425.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>140525.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>144596.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>145654.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>122990.0</v>
@@ -2122,10 +2260,20 @@
       <c r="AF16" t="n" s="8">
         <v>147063.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>149263.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>149832.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>150823.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>7.3</v>
@@ -2220,10 +2368,20 @@
       <c r="AF17" t="n" s="10">
         <v>12.3</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>9.3</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>9.7</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>297.0</v>
@@ -2318,10 +2476,20 @@
       <c r="AF18" t="n" s="8">
         <v>862.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>889.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>614.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>655.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>3775.0</v>
@@ -2416,10 +2584,20 @@
       <c r="AF19" t="n" s="8">
         <v>6120.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>5959.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>6007.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>6088.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>4072.0</v>
@@ -2514,10 +2692,20 @@
       <c r="AF20" t="n" s="8">
         <v>6982.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>6848.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>6621.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>6743.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>4.2</v>
@@ -2612,10 +2800,20 @@
       <c r="AF21" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>20.0</v>
@@ -2710,10 +2908,20 @@
       <c r="AF22" t="n" s="8">
         <v>31.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>456.0</v>
@@ -2808,10 +3016,20 @@
       <c r="AF23" t="n" s="8">
         <v>362.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>399.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>444.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>476.0</v>
@@ -2906,10 +3124,20 @@
       <c r="AF24" t="n" s="8">
         <v>393.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>444.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>417.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>461.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -2944,10 +3172,20 @@
       <c r="AF25" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -2982,10 +3220,20 @@
       <c r="AF26" t="n" s="8">
         <v>282.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>163.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -3020,10 +3268,20 @@
       <c r="AF27" t="n" s="8">
         <v>2967.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>3087.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>3280.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>3297.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -3058,10 +3316,20 @@
       <c r="AF28" t="n" s="8">
         <v>3249.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>3165.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>3380.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>3460.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -3096,10 +3364,20 @@
       <c r="AF29" t="n" s="10">
         <v>10.8</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -3134,10 +3412,20 @@
       <c r="AF30" t="n" s="8">
         <v>139.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>135.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -3172,10 +3460,20 @@
       <c r="AF31" t="n" s="8">
         <v>1152.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>1200.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>1271.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>1273.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -3210,10 +3508,20 @@
       <c r="AF32" t="n" s="8">
         <v>1291.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>1241.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>1406.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>1378.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>13.4</v>
@@ -3308,10 +3616,20 @@
       <c r="AF33" t="n" s="10">
         <v>17.5</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>10.4</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>134.0</v>
@@ -3406,10 +3724,20 @@
       <c r="AF34" t="n" s="8">
         <v>113.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>866.0</v>
@@ -3504,10 +3832,20 @@
       <c r="AF35" t="n" s="8">
         <v>534.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>723.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>926.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>979.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>1000.0</v>
@@ -3602,10 +3940,20 @@
       <c r="AF36" t="n" s="8">
         <v>647.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>807.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>991.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>1041.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>6.7</v>
@@ -3700,10 +4048,20 @@
       <c r="AF37" t="n" s="10">
         <v>8.9</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>82.0</v>
@@ -3798,10 +4156,20 @@
       <c r="AF38" t="n" s="8">
         <v>153.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>139.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>1139.0</v>
@@ -3896,10 +4264,20 @@
       <c r="AF39" t="n" s="8">
         <v>1567.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>1541.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>1559.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>1619.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>1221.0</v>
@@ -3994,10 +4372,20 @@
       <c r="AF40" t="n" s="8">
         <v>1720.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>1680.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>1656.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>1729.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>8.7</v>
@@ -4092,10 +4480,20 @@
       <c r="AF41" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>3120.0</v>
@@ -4190,10 +4588,20 @@
       <c r="AF42" t="n" s="8">
         <v>2998.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>2300.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>1735.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>1731.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>32736.0</v>
@@ -4288,10 +4696,20 @@
       <c r="AF43" t="n" s="8">
         <v>41534.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>42563.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>43353.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>43768.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>35856.0</v>
@@ -4386,10 +4804,20 @@
       <c r="AF44" t="n" s="8">
         <v>44532.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>44863.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>45088.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>45499.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>7.2</v>
@@ -4484,10 +4912,20 @@
       <c r="AF45" t="n" s="10">
         <v>16.4</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>79.0</v>
@@ -4582,10 +5020,20 @@
       <c r="AF46" t="n" s="8">
         <v>168.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>1013.0</v>
@@ -4680,10 +5128,20 @@
       <c r="AF47" t="n" s="8">
         <v>855.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>912.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>991.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>1038.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>1092.0</v>
@@ -4778,10 +5236,20 @@
       <c r="AF48" t="n" s="8">
         <v>1023.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>1026.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>1064.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>1111.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
@@ -4836,10 +5304,20 @@
       <c r="AF49" t="n" s="10">
         <v>14.1</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>9.2</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -4894,10 +5372,20 @@
       <c r="AF50" t="n" s="8">
         <v>149.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -4952,10 +5440,20 @@
       <c r="AF51" t="n" s="8">
         <v>907.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>1041.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>1176.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>1217.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
@@ -5010,10 +5508,20 @@
       <c r="AF52" t="n" s="8">
         <v>1056.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>1147.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>1248.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>1289.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>5.3</v>
@@ -5108,10 +5616,20 @@
       <c r="AF53" t="n" s="10">
         <v>7.0</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>802.0</v>
@@ -5206,10 +5724,20 @@
       <c r="AF54" t="n" s="8">
         <v>1148.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>797.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>502.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>523.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>14400.0</v>
@@ -5304,10 +5832,20 @@
       <c r="AF55" t="n" s="8">
         <v>15139.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>15927.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>16765.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>16948.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>15202.0</v>
@@ -5402,10 +5940,20 @@
       <c r="AF56" t="n" s="8">
         <v>16287.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>16724.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>17267.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>17471.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>12.1</v>
@@ -5500,10 +6048,20 @@
       <c r="AF57" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>2286.0</v>
@@ -5598,10 +6156,20 @@
       <c r="AF58" t="n" s="8">
         <v>2551.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>2007.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>1320.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>1329.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>16663.0</v>
@@ -5696,10 +6264,20 @@
       <c r="AF59" t="n" s="8">
         <v>24064.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>25639.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>26624.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>26841.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>18949.0</v>
@@ -5794,10 +6372,20 @@
       <c r="AF60" t="n" s="8">
         <v>26615.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>27646.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>27944.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>28170.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>7.9</v>
@@ -5892,10 +6480,20 @@
       <c r="AF61" t="n" s="10">
         <v>10.3</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>595.0</v>
@@ -5990,10 +6588,20 @@
       <c r="AF62" t="n" s="8">
         <v>664.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>479.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>267.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>253.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>6894.0</v>
@@ -6088,10 +6696,20 @@
       <c r="AF63" t="n" s="8">
         <v>5813.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>6058.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>6496.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>6630.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>7489.0</v>
@@ -6186,10 +6804,20 @@
       <c r="AF64" t="n" s="8">
         <v>6477.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>6537.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>6763.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>6883.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>5.4</v>
@@ -6284,10 +6912,20 @@
       <c r="AF65" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>340.0</v>
@@ -6382,10 +7020,20 @@
       <c r="AF66" t="n" s="8">
         <v>405.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>390.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>270.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>264.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>6006.0</v>
@@ -6480,10 +7128,20 @@
       <c r="AF67" t="n" s="8">
         <v>5653.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>5557.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>5671.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>5720.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>6346.0</v>
@@ -6578,10 +7236,20 @@
       <c r="AF68" t="n" s="8">
         <v>6058.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>5947.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>5941.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>5984.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>12.1</v>
@@ -6676,10 +7344,20 @@
       <c r="AF69" t="n" s="10">
         <v>20.8</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>19.4</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>167.0</v>
@@ -6774,10 +7452,20 @@
       <c r="AF70" t="n" s="8">
         <v>477.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>456.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>303.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>346.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>1209.0</v>
@@ -6872,10 +7560,20 @@
       <c r="AF71" t="n" s="8">
         <v>1811.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>1895.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>1942.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>1952.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>1376.0</v>
@@ -6970,10 +7668,20 @@
       <c r="AF72" t="n" s="8">
         <v>2288.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>2351.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>2245.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>2298.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>6.1</v>
@@ -7068,10 +7776,20 @@
       <c r="AF73" t="n" s="10">
         <v>11.6</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>8.7</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>27.0</v>
@@ -7166,10 +7884,20 @@
       <c r="AF74" t="n" s="8">
         <v>71.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>417.0</v>
@@ -7264,10 +7992,20 @@
       <c r="AF75" t="n" s="8">
         <v>542.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>595.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>609.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>624.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>444.0</v>
@@ -7362,10 +8100,20 @@
       <c r="AF76" t="n" s="8">
         <v>613.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>652.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>647.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>663.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>12.2</v>
@@ -7460,10 +8208,20 @@
       <c r="AF77" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>2199.0</v>
@@ -7558,10 +8316,20 @@
       <c r="AF78" t="n" s="8">
         <v>4246.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>3356.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>2392.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>2399.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>15803.0</v>
@@ -7656,10 +8424,20 @@
       <c r="AF79" t="n" s="8">
         <v>44112.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>45812.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>47084.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>47311.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>18002.0</v>
@@ -7754,10 +8532,20 @@
       <c r="AF80" t="n" s="8">
         <v>48358.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>49168.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>49476.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>49710.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>9.2</v>
@@ -7852,10 +8640,20 @@
       <c r="AF81" t="n" s="10">
         <v>11.1</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>9.7</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>294.0</v>
@@ -7950,10 +8748,20 @@
       <c r="AF82" t="n" s="8">
         <v>437.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>389.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>295.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>311.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>2887.0</v>
@@ -8048,10 +8856,20 @@
       <c r="AF83" t="n" s="8">
         <v>3500.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>3630.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>3798.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>3738.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>3181.0</v>
@@ -8146,10 +8964,20 @@
       <c r="AF84" t="n" s="8">
         <v>3937.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>4019.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>4093.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>4049.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>3.7</v>
@@ -8244,10 +9072,20 @@
       <c r="AF85" t="n" s="10">
         <v>6.2</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>103.0</v>
@@ -8342,10 +9180,20 @@
       <c r="AF86" t="n" s="8">
         <v>195.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>187.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>156.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>151.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>2715.0</v>
@@ -8440,10 +9288,20 @@
       <c r="AF87" t="n" s="8">
         <v>2963.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>2706.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>2794.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>2913.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>2818.0</v>
@@ -8538,10 +9396,20 @@
       <c r="AF88" t="n" s="8">
         <v>3158.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>2893.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>2950.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>3064.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>14.9</v>
@@ -8636,10 +9504,20 @@
       <c r="AF89" t="n" s="10">
         <v>12.8</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>317.0</v>
@@ -8734,10 +9612,20 @@
       <c r="AF90" t="n" s="8">
         <v>375.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>326.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>260.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>270.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>1804.0</v>
@@ -8832,10 +9720,20 @@
       <c r="AF91" t="n" s="8">
         <v>2563.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>2527.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>2462.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>2533.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>2121.0</v>
@@ -8930,10 +9828,20 @@
       <c r="AF92" t="n" s="8">
         <v>2938.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>2853.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>2722.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>2803.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
@@ -8988,10 +9896,20 @@
       <c r="AF93" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -9046,10 +9964,20 @@
       <c r="AF94" t="n" s="8">
         <v>131.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95"/>
       <c r="C95"/>
@@ -9104,10 +10032,20 @@
       <c r="AF95" t="n" s="8">
         <v>1300.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>1488.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>1336.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>1327.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
@@ -9162,10 +10100,20 @@
       <c r="AF96" t="n" s="8">
         <v>1431.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>1600.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>1423.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>1398.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -9220,10 +10168,20 @@
       <c r="AF97" t="n" s="10">
         <v>9.8</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -9278,10 +10236,20 @@
       <c r="AF98" t="n" s="8">
         <v>279.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>225.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>154.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>180.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
@@ -9336,10 +10304,20 @@
       <c r="AF99" t="n" s="8">
         <v>2556.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>2547.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>2526.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>2490.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100"/>
       <c r="C100"/>
@@ -9394,10 +10372,20 @@
       <c r="AF100" t="n" s="8">
         <v>2835.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>2772.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>2680.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>2670.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>11.2</v>
@@ -9470,10 +10458,14 @@
       <c r="AD101"/>
       <c r="AE101"/>
       <c r="AF101"/>
+      <c r="AG101"/>
+      <c r="AH101"/>
+      <c r="AI101"/>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>325.0</v>
@@ -9546,10 +10538,14 @@
       <c r="AD102"/>
       <c r="AE102"/>
       <c r="AF102"/>
+      <c r="AG102"/>
+      <c r="AH102"/>
+      <c r="AI102"/>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>2582.0</v>
@@ -9622,10 +10618,14 @@
       <c r="AD103"/>
       <c r="AE103"/>
       <c r="AF103"/>
+      <c r="AG103"/>
+      <c r="AH103"/>
+      <c r="AI103"/>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>2907.0</v>
@@ -9698,10 +10698,14 @@
       <c r="AD104"/>
       <c r="AE104"/>
       <c r="AF104"/>
+      <c r="AG104"/>
+      <c r="AH104"/>
+      <c r="AI104"/>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>5.2</v>
@@ -9796,10 +10800,20 @@
       <c r="AF105" t="n" s="10">
         <v>7.3</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>235.0</v>
@@ -9894,10 +10908,20 @@
       <c r="AF106" t="n" s="8">
         <v>301.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>203.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>130.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>134.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>4263.0</v>
@@ -9992,10 +11016,20 @@
       <c r="AF107" t="n" s="8">
         <v>3815.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>4234.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>4379.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>4385.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>4498.0</v>
@@ -10090,10 +11124,20 @@
       <c r="AF108" t="n" s="8">
         <v>4116.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>4437.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>4509.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>4519.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -10148,10 +11192,20 @@
       <c r="AF109" t="n" s="10">
         <v>21.7</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
@@ -10206,10 +11260,20 @@
       <c r="AF110" t="n" s="8">
         <v>139.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -10264,10 +11328,20 @@
       <c r="AF111" t="n" s="8">
         <v>503.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>552.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>717.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>728.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
@@ -10322,10 +11396,20 @@
       <c r="AF112" t="n" s="8">
         <v>642.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>638.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>769.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>773.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>10.4</v>
@@ -10398,10 +11482,14 @@
       <c r="AD113"/>
       <c r="AE113"/>
       <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>263.0</v>
@@ -10474,10 +11562,14 @@
       <c r="AD114"/>
       <c r="AE114"/>
       <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>2263.0</v>
@@ -10550,10 +11642,14 @@
       <c r="AD115"/>
       <c r="AE115"/>
       <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>2526.0</v>
@@ -10626,10 +11722,14 @@
       <c r="AD116"/>
       <c r="AE116"/>
       <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>12.9</v>
@@ -10724,10 +11824,20 @@
       <c r="AF117" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>289.0</v>
@@ -10822,10 +11932,20 @@
       <c r="AF118" t="n" s="8">
         <v>229.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>212.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>175.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>177.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>1958.0</v>
@@ -10920,10 +12040,20 @@
       <c r="AF119" t="n" s="8">
         <v>2714.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>2993.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>3039.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>3220.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>2247.0</v>
@@ -11018,10 +12148,20 @@
       <c r="AF120" t="n" s="8">
         <v>2943.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>3205.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>3214.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>3397.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>11.4</v>
@@ -11114,10 +12254,14 @@
         <v>7.0</v>
       </c>
       <c r="AF121"/>
+      <c r="AG121"/>
+      <c r="AH121"/>
+      <c r="AI121"/>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>594.0</v>
@@ -11210,10 +12354,14 @@
         <v>338.0</v>
       </c>
       <c r="AF122"/>
+      <c r="AG122"/>
+      <c r="AH122"/>
+      <c r="AI122"/>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>4617.0</v>
@@ -11306,10 +12454,14 @@
         <v>4517.0</v>
       </c>
       <c r="AF123"/>
+      <c r="AG123"/>
+      <c r="AH123"/>
+      <c r="AI123"/>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>5211.0</v>
@@ -11402,10 +12554,14 @@
         <v>4855.0</v>
       </c>
       <c r="AF124"/>
+      <c r="AG124"/>
+      <c r="AH124"/>
+      <c r="AI124"/>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125"/>
       <c r="C125"/>
@@ -11460,10 +12616,20 @@
       <c r="AF125" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -11518,10 +12684,20 @@
       <c r="AF126" t="n" s="8">
         <v>89.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127"/>
       <c r="C127"/>
@@ -11576,10 +12752,20 @@
       <c r="AF127" t="n" s="8">
         <v>867.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>867.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>828.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>881.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128"/>
       <c r="C128"/>
@@ -11634,10 +12820,20 @@
       <c r="AF128" t="n" s="8">
         <v>956.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>937.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>875.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>926.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>8.8</v>
@@ -11710,10 +12906,14 @@
       <c r="AD129"/>
       <c r="AE129"/>
       <c r="AF129"/>
+      <c r="AG129"/>
+      <c r="AH129"/>
+      <c r="AI129"/>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>320.0</v>
@@ -11786,10 +12986,14 @@
       <c r="AD130"/>
       <c r="AE130"/>
       <c r="AF130"/>
+      <c r="AG130"/>
+      <c r="AH130"/>
+      <c r="AI130"/>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>3297.0</v>
@@ -11862,10 +13066,14 @@
       <c r="AD131"/>
       <c r="AE131"/>
       <c r="AF131"/>
+      <c r="AG131"/>
+      <c r="AH131"/>
+      <c r="AI131"/>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>3617.0</v>
@@ -11938,10 +13146,14 @@
       <c r="AD132"/>
       <c r="AE132"/>
       <c r="AF132"/>
+      <c r="AG132"/>
+      <c r="AH132"/>
+      <c r="AI132"/>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133"/>
       <c r="C133"/>
@@ -12028,10 +13240,20 @@
       <c r="AF133" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134"/>
       <c r="C134"/>
@@ -12118,10 +13340,20 @@
       <c r="AF134" t="n" s="8">
         <v>24.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135"/>
       <c r="C135"/>
@@ -12208,10 +13440,20 @@
       <c r="AF135" t="n" s="8">
         <v>255.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>288.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>297.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136"/>
       <c r="C136"/>
@@ -12298,10 +13540,20 @@
       <c r="AF136" t="n" s="8">
         <v>279.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>310.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>313.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>315.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>14.6</v>
@@ -12396,10 +13648,20 @@
       <c r="AF137" t="n" s="10">
         <v>12.7</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>12.2</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>287.0</v>
@@ -12494,10 +13756,20 @@
       <c r="AF138" t="n" s="8">
         <v>297.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>296.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>193.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>216.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>1674.0</v>
@@ -12592,10 +13864,20 @@
       <c r="AF139" t="n" s="8">
         <v>2037.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>2123.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>2132.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>2176.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>1961.0</v>
@@ -12690,6 +13972,16 @@
       <c r="AF140" t="n" s="8">
         <v>2334.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>2419.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>2325.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>2392.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -12700,7 +13992,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (12:40:35 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:20:32 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
